--- a/Section 10 - Amazon Data Scraping/10.2 - 1.xlsx
+++ b/Section 10 - Amazon Data Scraping/10.2 - 1.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25401"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truls RPA\Documents\Internshala downloadable content\Build a robot 2\Build a robot 2 - Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D532854F-873D-4DCC-B440-8034D91A0BBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D532854F-873D-4DCC-B440-8034D91A0BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,10 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,33 +382,33 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -410,6 +419,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xsi:nil="true"/>
+    <Duration xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc" xsi:nil="true"/>
+    <SharedWithUsers xmlns="92e4be8c-5aca-45ec-8e17-deab1f90d7c8">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF5EC4FAED17FD4FA002B715A7CB3129" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4aa9156728ec40ec10fea053bf01ab89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xmlns:ns3="92b31412-8c8f-44f1-a883-141cef3f34cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25bd8e2f098c81b399dd4c6c22e90871" ns2:_="" ns3:_="">
     <xsd:import namespace="92e4be8c-5aca-45ec-8e17-deab1f90d7c8"/>
@@ -660,37 +698,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xsi:nil="true"/>
-    <Duration xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc" xsi:nil="true"/>
-    <SharedWithUsers xmlns="92e4be8c-5aca-45ec-8e17-deab1f90d7c8">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11726A4F-FBDC-47BA-975F-8CC9C1B4B796}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFD34496-D543-45A9-83D6-FA28CEE16722}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,5 +707,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFD34496-D543-45A9-83D6-FA28CEE16722}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11726A4F-FBDC-47BA-975F-8CC9C1B4B796}"/>
 </file>